--- a/emagevision/cpu_emagevision.xlsx
+++ b/emagevision/cpu_emagevision.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="126">
   <si>
     <t>date_hour_of_Aug</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>31_18</t>
+  </si>
+  <si>
+    <t>10_00</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1902,6 +1905,438 @@
         <v>78.95999999999999</v>
       </c>
     </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148">
+        <v>70.23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149">
+        <v>80.98</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150">
+        <v>76.51000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>28</v>
+      </c>
+      <c r="B151">
+        <v>75.67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>29</v>
+      </c>
+      <c r="B152">
+        <v>78.65000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153">
+        <v>77.34999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154">
+        <v>40.38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155">
+        <v>79.79000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156">
+        <v>40.44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157">
+        <v>39.22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158">
+        <v>90.31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>36</v>
+      </c>
+      <c r="B159">
+        <v>76.29000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160">
+        <v>31.92</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>125</v>
+      </c>
+      <c r="B161">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>38</v>
+      </c>
+      <c r="B162">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B163">
+        <v>39.44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164">
+        <v>42.75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165">
+        <v>35.79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>42</v>
+      </c>
+      <c r="B166">
+        <v>42.58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>46</v>
+      </c>
+      <c r="B170">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>48</v>
+      </c>
+      <c r="B172">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>51</v>
+      </c>
+      <c r="B175">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>53</v>
+      </c>
+      <c r="B177">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>55</v>
+      </c>
+      <c r="B178">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>56</v>
+      </c>
+      <c r="B179">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>57</v>
+      </c>
+      <c r="B180">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>58</v>
+      </c>
+      <c r="B181">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>59</v>
+      </c>
+      <c r="B182">
+        <v>81.76000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B183">
+        <v>32.15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>61</v>
+      </c>
+      <c r="B184">
+        <v>41.59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>62</v>
+      </c>
+      <c r="B185">
+        <v>86.44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>63</v>
+      </c>
+      <c r="B186">
+        <v>42.14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>65</v>
+      </c>
+      <c r="B188">
+        <v>42.17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>66</v>
+      </c>
+      <c r="B189">
+        <v>82.48999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>67</v>
+      </c>
+      <c r="B190">
+        <v>70.86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>68</v>
+      </c>
+      <c r="B191">
+        <v>81.95999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>69</v>
+      </c>
+      <c r="B192">
+        <v>86.34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>70</v>
+      </c>
+      <c r="B193">
+        <v>82.08</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>71</v>
+      </c>
+      <c r="B194">
+        <v>73.84999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>72</v>
+      </c>
+      <c r="B195">
+        <v>81.89</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>73</v>
+      </c>
+      <c r="B196">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>74</v>
+      </c>
+      <c r="B197">
+        <v>83.11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>75</v>
+      </c>
+      <c r="B198">
+        <v>83.16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>76</v>
+      </c>
+      <c r="B199">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>77</v>
+      </c>
+      <c r="B200">
+        <v>73.90000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>78</v>
+      </c>
+      <c r="B201">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
